--- a/ActitimeMaven/src/test/resources/data/testscript.xlsx
+++ b/ActitimeMaven/src/test/resources/data/testscript.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaPrograms\ActitimeMaven\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venkat\git\repository3\ActitimeMaven\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA11E58E-3C04-49F5-9C5E-5E686819AD40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B8BA6F-65F5-4B06-9FD8-83ECC1049FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13224" yWindow="1332" windowWidth="8880" windowHeight="8964" xr2:uid="{23B566DA-DFCB-47B0-9841-1F13460A2CE7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>CustomerDescription</t>
   </si>
   <si>
-    <t>HDFC_0006</t>
+    <t>HDFC_000566</t>
   </si>
 </sst>
 </file>

--- a/ActitimeMaven/src/test/resources/data/testscript.xlsx
+++ b/ActitimeMaven/src/test/resources/data/testscript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venkat\git\repository3\ActitimeMaven\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B8BA6F-65F5-4B06-9FD8-83ECC1049FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCF3264-B168-4278-BDB2-1109C8B7A1CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13224" yWindow="1332" windowWidth="8880" windowHeight="8964" xr2:uid="{23B566DA-DFCB-47B0-9841-1F13460A2CE7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>CustomerDescription</t>
   </si>
   <si>
-    <t>HDFC_000566</t>
+    <t>HDFC_0005667</t>
   </si>
 </sst>
 </file>
